--- a/uniswap_v2_bsc.xlsx
+++ b/uniswap_v2_bsc.xlsx
@@ -4,10 +4,1695 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="bsc_uniswap_v2.xlsx" state="visible" r:id="rId3"/>
+    <sheet sheetId="1" name="bsc_uniswap_v2.xlsx" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="560">
+  <si>
+    <t>Sr no.</t>
+  </si>
+  <si>
+    <t>Pair address</t>
+  </si>
+  <si>
+    <t>Token 0</t>
+  </si>
+  <si>
+    <t>Token 0 ID</t>
+  </si>
+  <si>
+    <t>Token 1</t>
+  </si>
+  <si>
+    <t>Token 1 ID</t>
+  </si>
+  <si>
+    <t>Liquidity</t>
+  </si>
+  <si>
+    <t>0x57c68F0e9E6bE81FB4D9a46e1910C5DAA9c4cfeb</t>
+  </si>
+  <si>
+    <t>USD Coin (USDC)</t>
+  </si>
+  <si>
+    <t>0x8AC76a51cc950d9822D68b83fE1Ad97B32Cd580d</t>
+  </si>
+  <si>
+    <t>Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0xbb4CdB9CBd36B01bD1cBaEBF2De08d9173bc095c</t>
+  </si>
+  <si>
+    <t>65329983648889247894 USD Coin (USDC) + 120850345535735526 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x8a1Ed8e124fdFBD534bF48baF732E26db9Cc0Cf4</t>
+  </si>
+  <si>
+    <t>Tether USD (USDT)</t>
+  </si>
+  <si>
+    <t>0x55d398326f99059fF775485246999027B3197955</t>
+  </si>
+  <si>
+    <t>101371228060146411549 Tether USD (USDT) + 184939403509747306 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0xC6C5047405bCe6d583FeB2a91C504346d0ea60Ca</t>
+  </si>
+  <si>
+    <t>DRIFE (DRF)</t>
+  </si>
+  <si>
+    <t>0x9400Aa8eb5126d20CDE45C7822836BFB70F19878</t>
+  </si>
+  <si>
+    <t>55 Tether USD (USDT) + 18346 DRIFE (DRF)</t>
+  </si>
+  <si>
+    <t>0xF15FA3d7B9aa58382cd458B97F4Dc0749183995E</t>
+  </si>
+  <si>
+    <t>Tiger (CUB)</t>
+  </si>
+  <si>
+    <t>0x50FD6f86C7537ffedE56171a50aA8b6045B241Dc</t>
+  </si>
+  <si>
+    <t>25 Tiger (CUB) + 346422 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x72901E5628c92486397369100a14550103e2Cef6</t>
+  </si>
+  <si>
+    <t>2729717374 Tiger (CUB) + 13078610100322419 Tether USD (USDT)</t>
+  </si>
+  <si>
+    <t>0x42f8d5b05a9A113342C1e00C8974e57DC6125A3C</t>
+  </si>
+  <si>
+    <t>ApeMax (APEMAX)</t>
+  </si>
+  <si>
+    <t>0x5bD97D0c8E668298F2A6bAa069F47F556a447A78</t>
+  </si>
+  <si>
+    <t>1273934665869544305261167182 ApeMax (APEMAX) + 78971709730412061758 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0xa473f7Ff16E94c5aa1FD2a845FF9c16a88211703</t>
+  </si>
+  <si>
+    <t>Chiburashka Inu (Chibu)</t>
+  </si>
+  <si>
+    <t>0x96bb3d3dbF3689E60DB59117DBa4851cE9e9e00d</t>
+  </si>
+  <si>
+    <t>1000000000000000000 Tether USD (USDT) + 4500000000000000000000 Chiburashka Inu (Chibu)</t>
+  </si>
+  <si>
+    <t>0xA6f558C82baB1Ed11AAB8A9248e167bff0090320</t>
+  </si>
+  <si>
+    <t>Avalanche (AVAX)</t>
+  </si>
+  <si>
+    <t>0x1CE0c2827e2eF14D5C4f29a091d735A204794041</t>
+  </si>
+  <si>
+    <t>9649530720928 Avalanche (AVAX) + 900002000001 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x027112C2415A2fcfADAdE6b13CC3394027eCA135</t>
+  </si>
+  <si>
+    <t>BigBaby (BB)</t>
+  </si>
+  <si>
+    <t>0x67C7797b42B07254836b728B22Ade6B3bDA65916</t>
+  </si>
+  <si>
+    <t>1 BigBaby (BB) + 1000000000000001 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0xA93a7AE7b639283c3F4De8B92369588a236a1499</t>
+  </si>
+  <si>
+    <t>TouchAI (AI)</t>
+  </si>
+  <si>
+    <t>0x946E0dD70803C970Be3959B3e03ab977ae96D257</t>
+  </si>
+  <si>
+    <t>9019470378316632369 TouchAI (AI) + 21736041801551292 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x4504482635629A61F11cCcf1bD34a69C66Fb3029</t>
+  </si>
+  <si>
+    <t>zuzalu (zuzalu)</t>
+  </si>
+  <si>
+    <t>0x550D442010eEC126Adf664fb78FAC6772037A5b1</t>
+  </si>
+  <si>
+    <t>124575991742 zuzalu (zuzalu) + 1 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x47295b76Ad83FB9c18a4018e91a877E28514A02A</t>
+  </si>
+  <si>
+    <t>Ankr (ANKR)</t>
+  </si>
+  <si>
+    <t>0xf307910A4c7bbc79691fD374889b36d8531B08e3</t>
+  </si>
+  <si>
+    <t>ChainLink Token (LINK)</t>
+  </si>
+  <si>
+    <t>0xF8A0BF9cF54Bb92F17374d9e9A321E6a111a51bD</t>
+  </si>
+  <si>
+    <t>27672792222156252217 Ankr (ANKR) + 46345911221105440 ChainLink Token (LINK)</t>
+  </si>
+  <si>
+    <t>0x21fbF92Bbe1903d0af6e8b21c9Ee5B43565Bd3b9</t>
+  </si>
+  <si>
+    <t>Ethereum Token (ETH)</t>
+  </si>
+  <si>
+    <t>0x2170Ed0880ac9A755fd29B2688956BD959F933F8</t>
+  </si>
+  <si>
+    <t>4709191666792035 Ethereum Token (ETH) + 29359300562319364 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x3f9045E9826051F4C039fd2b78815307A7Bc38B7</t>
+  </si>
+  <si>
+    <t>BTCB Token (BTCB)</t>
+  </si>
+  <si>
+    <t>0x7130d2A12B9BCbFAe4f2634d864A1Ee1Ce3Ead9c</t>
+  </si>
+  <si>
+    <t>Shahi (SHAH)</t>
+  </si>
+  <si>
+    <t>0x93eA4088773FDf044495056559Dd69967A982015</t>
+  </si>
+  <si>
+    <t>65535599809815590 BTCB Token (BTCB) + 564442335731298888165859 Shahi (SHAH)</t>
+  </si>
+  <si>
+    <t>0xD28d3f5A9A718027a4889A4278c6F1770Ed05885</t>
+  </si>
+  <si>
+    <t>1INCH Token (1INCH)</t>
+  </si>
+  <si>
+    <t>0x111111111117dC0aa78b770fA6A738034120C302</t>
+  </si>
+  <si>
+    <t>TokTik (TKT)</t>
+  </si>
+  <si>
+    <t>0x1bA10eF47B6bA2B38057912fD06F9A6Cebb42d15</t>
+  </si>
+  <si>
+    <t>216 1INCH Token (1INCH) + 4813 TokTik (TKT)</t>
+  </si>
+  <si>
+    <t>0x1B1CBA6092392c70393E46a76B29E5C8fa62d19A</t>
+  </si>
+  <si>
+    <t>USDTether (USDT)</t>
+  </si>
+  <si>
+    <t>0xc67c4DfbFE9Eb47f6aeb2792457d4E80Fb3e752a</t>
+  </si>
+  <si>
+    <t>1 Wrapped BNB (WBNB) + 1600000 USDTether (USDT)</t>
+  </si>
+  <si>
+    <t>0x284f8b174455d5507239a966eA9cE5C23dfC2C67</t>
+  </si>
+  <si>
+    <t>TokenForYou (TFY)</t>
+  </si>
+  <si>
+    <t>0x913bbA5Ed611691e3a7F952f8bbCA0cbb3341504</t>
+  </si>
+  <si>
+    <t>70075846 TokenForYou (TFY) + 1 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x18aB21cDb9FC480DC21bF12890e541dB8BEe1ddf</t>
+  </si>
+  <si>
+    <t>Uniswap (UNI)</t>
+  </si>
+  <si>
+    <t>0xBf5140A22578168FD562DCcF235E5D43A02ce9B1</t>
+  </si>
+  <si>
+    <t>455135377972965020 Wrapped BNB (WBNB) + 20764777183332858897 Uniswap (UNI)</t>
+  </si>
+  <si>
+    <t>0x9553586efF2EA9D18801fAF29B0972434A318b9e</t>
+  </si>
+  <si>
+    <t>Rare FND (FND)</t>
+  </si>
+  <si>
+    <t>0xee9Bd60C0331Fc033B25E7DFDF5ce5B1A8997baC</t>
+  </si>
+  <si>
+    <t>10880000000 Wrapped BNB (WBNB) + 390719807011995557745629455 Rare FND (FND)</t>
+  </si>
+  <si>
+    <t>0x6C94D1aEd6DB59CA42FECE5FB0bbA9965Be5F049</t>
+  </si>
+  <si>
+    <t>Test1 (TT1)</t>
+  </si>
+  <si>
+    <t>0x378b9dE23Aa92AC90b9DE061a85377cB147d0c29</t>
+  </si>
+  <si>
+    <t>9093389106119850868419 Test1 (TT1) + 110000000000000000 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x8DBa093EC461dBf21E820888A1eF89c962a4e55A</t>
+  </si>
+  <si>
+    <t>Chop yourself (CH0P)</t>
+  </si>
+  <si>
+    <t>0xD58182f1373B85795DbB11ed61800ac183FB3350</t>
+  </si>
+  <si>
+    <t>1666 Wrapped BNB (WBNB) + 606 Chop yourself (CH0P)</t>
+  </si>
+  <si>
+    <t>0xA80BDC62D17cE29b67B01eee9E9b44F93183da27</t>
+  </si>
+  <si>
+    <t>Issued by the Sacred Law for the Pleasure of Divinity (Gaiano)</t>
+  </si>
+  <si>
+    <t>0x05675c77dDf19D2e139F7a34164746C3BF32a2f1</t>
+  </si>
+  <si>
+    <t>119675 Issued by the Sacred Law for the Pleasure of Divinity (Gaiano) + 2360902014221334899 Tether USD (USDT)</t>
+  </si>
+  <si>
+    <t>0x901e2e9e5b33376CCec8D5491aF8cBf24ECA79d3</t>
+  </si>
+  <si>
+    <t>SaitaRealty (SRLTY)</t>
+  </si>
+  <si>
+    <t>0xEE8ed80Bb013325EA63df19233aAe584e94F3826</t>
+  </si>
+  <si>
+    <t>301568983008 Wrapped BNB (WBNB) + 970000058 SaitaRealty (SRLTY)</t>
+  </si>
+  <si>
+    <t>0x10922A269a422F0a20e28EDc5e90a975EE796591</t>
+  </si>
+  <si>
+    <t>Rocket Rise (RCTK)</t>
+  </si>
+  <si>
+    <t>0x80Eb589fc86a21103C5b8319cC5a8b3318F1Af7A</t>
+  </si>
+  <si>
+    <t>85439408442186777554 Rocket Rise (RCTK) + 47949502000000000 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x5d9Cb525cc22F134Ca4dc1b462511C4a8957B0ab</t>
+  </si>
+  <si>
+    <t>CUQFOX (CFX)</t>
+  </si>
+  <si>
+    <t>0x54a66fB66F5995965349Dd998acDd677E40BA3C9</t>
+  </si>
+  <si>
+    <t>90000000000000000000000000 CUQFOX (CFX) + 40633375809895194 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0xB5F306BaB91d9E72c45ad8129566ce2065F41Fde</t>
+  </si>
+  <si>
+    <t>ShibaCumGMElonKishuTurboAssFlokiMoonInu (PEPE)</t>
+  </si>
+  <si>
+    <t>0x38444bF387171656762e654EE05C5270903Af834</t>
+  </si>
+  <si>
+    <t>28309 ShibaCumGMElonKishuTurboAssFlokiMoonInu (PEPE) + 36 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x54Be1A370F0c40B43B3989f2C644ec3E8752F1C5</t>
+  </si>
+  <si>
+    <t>0xd814AD56c87eAe510B0fbc776882145337Ea5165</t>
+  </si>
+  <si>
+    <t>36 Wrapped BNB (WBNB) + 28309 ShibaCumGMElonKishuTurboAssFlokiMoonInu (PEPE)</t>
+  </si>
+  <si>
+    <t>0xe4061ebfF19D8bef32ab0532C6621558B12A9E29</t>
+  </si>
+  <si>
+    <t>get rich with meme ($MEMEMEME$)</t>
+  </si>
+  <si>
+    <t>0x2563A4f7c37F2AcA9f3222DeF6849C4156D6f9D2</t>
+  </si>
+  <si>
+    <t>878979789 get rich with meme ($MEMEMEME$) + 1292652500000000 Tether USD (USDT)</t>
+  </si>
+  <si>
+    <t>0x36ECcA67B29132A180770CD16C0D33E8E08D177E</t>
+  </si>
+  <si>
+    <t>My Token (TKN)</t>
+  </si>
+  <si>
+    <t>0x49eCA1B4Eabe382aaa1E2fE8cFb3EC2216F62Ad7</t>
+  </si>
+  <si>
+    <t>5325180367657299207 My Token (TKN) + 46955368575065290 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x8315739B28ab4F235f93D6eD94A706a500e27e7e</t>
+  </si>
+  <si>
+    <t>Alimdar Token (AlimdarT)</t>
+  </si>
+  <si>
+    <t>0x3beB59Bfef1d329eeb35b98A99bDA9F782EFf76f</t>
+  </si>
+  <si>
+    <t>324492472 Alimdar Token (AlimdarT) + 1 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0xB9600e90414a9C8C128C78d4078784ecDfB03E49</t>
+  </si>
+  <si>
+    <t>PancakeSwap Token (Cake)</t>
+  </si>
+  <si>
+    <t>0x0E09FaBB73Bd3Ade0a17ECC321fD13a19e81cE82</t>
+  </si>
+  <si>
+    <t>12679775280910161 PancakeSwap Token (Cake) + 100000000000088 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x1C15e585a279eF560A4ae92AcAf065CE323A57E7</t>
+  </si>
+  <si>
+    <t>BMO (BMO)</t>
+  </si>
+  <si>
+    <t>0x7a79a596539DF89694A4366824F3B9cB28c9f6b4</t>
+  </si>
+  <si>
+    <t>200000000000000000000000000000000 BMO (BMO) + 4000000000000000 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x66876E5bfDc863DeBEBCCCd7Fc438B172281e77F</t>
+  </si>
+  <si>
+    <t>Purple Pepe (PEPU)</t>
+  </si>
+  <si>
+    <t>0xe4834657c17758Af5ABcAC8e118d1525c6356Fb3</t>
+  </si>
+  <si>
+    <t>448 Wrapped BNB (WBNB) + 2237 Purple Pepe (PEPU)</t>
+  </si>
+  <si>
+    <t>0x12A686dB9D7653DeAAfCAB196ab3E64464388993</t>
+  </si>
+  <si>
+    <t>LiriyaCoin (LIRIYA)</t>
+  </si>
+  <si>
+    <t>0x20d331d809C758AB21c059c2de8775C3039284d2</t>
+  </si>
+  <si>
+    <t>197821252142164515158010373 LiriyaCoin (LIRIYA) + 780497374974743 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x6024754e42Ed39f96dbEb1DdC27f5b33ec403a95</t>
+  </si>
+  <si>
+    <t>Civilization (CVL)</t>
+  </si>
+  <si>
+    <t>0x9Ae0290cD677dc69A5f2a1E435EF002400Da70F5</t>
+  </si>
+  <si>
+    <t>10 Tether USD (USDT) + 102879 Civilization (CVL)</t>
+  </si>
+  <si>
+    <t>0x5DBA7f02A8D46d9daEaA9FC07A65AdaEC3c4f661</t>
+  </si>
+  <si>
+    <t>Shiba Musk (ShibM)</t>
+  </si>
+  <si>
+    <t>0x3fC63fA326B32F055f6bB8DA791586b3Fd1bE207</t>
+  </si>
+  <si>
+    <t>95000000047500 Shiba Musk (ShibM) + 101912453994000 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x9f482fDBa3A774ad9046298fAc05AE98F678B430</t>
+  </si>
+  <si>
+    <t>Elephant Money (ELEPHANT)</t>
+  </si>
+  <si>
+    <t>0xE283D0e3B8c102BAdF5E8166B73E02D96d92F688</t>
+  </si>
+  <si>
+    <t>746 Wrapped BNB (WBNB) + 1350 Elephant Money (ELEPHANT)</t>
+  </si>
+  <si>
+    <t>0x3b34EffeA0835b20FaBb47C88763454dE0c05B0D</t>
+  </si>
+  <si>
+    <t>INFINITYRUN (INC)</t>
+  </si>
+  <si>
+    <t>0x39987764125aD0C5c70335a8f8fc3d2e501029c0</t>
+  </si>
+  <si>
+    <t>1640314103130955044769 INFINITYRUN (INC) + 120338288774221360 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x907B6feA3E70e71444004D41Df61D68860a9Ad24</t>
+  </si>
+  <si>
+    <t>295 Ethereum Token (ETH) + 3400 Elephant Money (ELEPHANT)</t>
+  </si>
+  <si>
+    <t>0x2a3716c6d95676f70d8146a3f8E4dcF406B4812d</t>
+  </si>
+  <si>
+    <t>pTokens CGG (CGG)</t>
+  </si>
+  <si>
+    <t>0x1613957159E9B0ac6c80e824F7Eea748a32a0AE2</t>
+  </si>
+  <si>
+    <t>31510773720597455242982 pTokens CGG (CGG) + 2001031770412716893512 Tether USD (USDT)</t>
+  </si>
+  <si>
+    <t>0xfbB1CCBcC9c85D02adAa3A846ab69BE062690D72</t>
+  </si>
+  <si>
+    <t>Botanix (BOTX)</t>
+  </si>
+  <si>
+    <t>0x502Cf4b99684882a24bac45dD6cfBB32e6d8bB64</t>
+  </si>
+  <si>
+    <t>1849303132883908015776 Botanix (BOTX) + 1381053161484657282 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0xf4F6bE8dD87F98b35FC1Fd538c7cF41702fba4E9</t>
+  </si>
+  <si>
+    <t>Bitcoin Cash Token (BCH)</t>
+  </si>
+  <si>
+    <t>0x8fF795a6F4D97E7887C79beA79aba5cc76444aDf</t>
+  </si>
+  <si>
+    <t>368 Ethereum Token (ETH) + 2719 Bitcoin Cash Token (BCH)</t>
+  </si>
+  <si>
+    <t>0x39c8e3688fE2683C722dA360F5Faf2Eb2f64C379</t>
+  </si>
+  <si>
+    <t>MellstroyCoin (MLST)</t>
+  </si>
+  <si>
+    <t>0x63D8298dB63426DeeA8b82658e5F67330894C252</t>
+  </si>
+  <si>
+    <t>1 Tether USD (USDT) + 56407620 MellstroyCoin (MLST)</t>
+  </si>
+  <si>
+    <t>0x7cf78508F433f14afCE114Ca0A122144EDfd5c48</t>
+  </si>
+  <si>
+    <t>MellStroy (MELST)</t>
+  </si>
+  <si>
+    <t>0xa2E052636cC548215FBac857D4aa3E7d80D6188D</t>
+  </si>
+  <si>
+    <t>10 Tether USD (USDT) + 101820 MellStroy (MELST)</t>
+  </si>
+  <si>
+    <t>0x1db5edd05259c1118CD399614dFdEe02dc8aA75A</t>
+  </si>
+  <si>
+    <t>ZK (ZKGAP)</t>
+  </si>
+  <si>
+    <t>0x63D0761Ab9705ce0AF64E78664A64e550cC53b92</t>
+  </si>
+  <si>
+    <t>109 Tether USD (USDT) + 9250 ZK (ZKGAP)</t>
+  </si>
+  <si>
+    <t>0xaA94Ab3Aab66b5854185B447CeD1416544b548D7</t>
+  </si>
+  <si>
+    <t>Logical Good Token (LGT)</t>
+  </si>
+  <si>
+    <t>0xF79A70b1dc5B3202B71e84Fc64938729EBB3A4fD</t>
+  </si>
+  <si>
+    <t>4606733 Wrapped BNB (WBNB) + 58689984058882415 Logical Good Token (LGT)</t>
+  </si>
+  <si>
+    <t>0xBDE73a33F6DcB826d1D479e031A89F556f80e141</t>
+  </si>
+  <si>
+    <t>AON.FinanceV2 (AONv2)</t>
+  </si>
+  <si>
+    <t>0xBF5E9bB97742F4C3CDa3E09E478b770Adf6f8678</t>
+  </si>
+  <si>
+    <t>70590277426921973 Wrapped BNB (WBNB) + 32878887041027034155272548924299 AON.FinanceV2 (AONv2)</t>
+  </si>
+  <si>
+    <t>0x1AE09E7056c1eBdCc7994B3A54F69d864bbB22DD</t>
+  </si>
+  <si>
+    <t>Te Dua (EDUA)</t>
+  </si>
+  <si>
+    <t>0x4FDe8ADE26ca803c6CA8D3d5A2b73B74F92963eA</t>
+  </si>
+  <si>
+    <t>1098436 Te Dua (EDUA) + 1 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x5F3192b305068b9d6E13CAAeb16a86B167f63e4f</t>
+  </si>
+  <si>
+    <t>ZEP (ZEP)</t>
+  </si>
+  <si>
+    <t>0x15EA2Ab677F6114B57853F5bD07a865a077b5D2f</t>
+  </si>
+  <si>
+    <t>2892 ZEP (ZEP) + 346 Tether USD (USDT)</t>
+  </si>
+  <si>
+    <t>0x4401BD0b8a62C61cfF44a556D5Eb95E7fa8ac861</t>
+  </si>
+  <si>
+    <t>Elephant Money Stable (TRUNK)</t>
+  </si>
+  <si>
+    <t>0xdd325C38b12903B727D16961e61333f4871A70E0</t>
+  </si>
+  <si>
+    <t>10 Wrapped BNB (WBNB) + 106062 Elephant Money Stable (TRUNK)</t>
+  </si>
+  <si>
+    <t>0xa0ba4aaD797907b7a99a850F2D598d367a0AbAe8</t>
+  </si>
+  <si>
+    <t>NESGCOIN (NESG)</t>
+  </si>
+  <si>
+    <t>0xFCcf5Becfcc0978A3A766476Bb58d5F13565d999</t>
+  </si>
+  <si>
+    <t>213181394843026471 Wrapped BNB (WBNB) + 97735463630111173149 NESGCOIN (NESG)</t>
+  </si>
+  <si>
+    <t>0x90Ef1a955a545DAA1612682eb9Ec9fBaEAaeBd18</t>
+  </si>
+  <si>
+    <t>Dai Token (DAI)</t>
+  </si>
+  <si>
+    <t>0x1AF3F329e8BE154074D8769D1FFa4eE058B1DBc3</t>
+  </si>
+  <si>
+    <t>1000 Dai Token (DAI) + 1000 USD Coin (USDC)</t>
+  </si>
+  <si>
+    <t>0x448B4F1c1043e10aE4b1c22A73D122dDE061A188</t>
+  </si>
+  <si>
+    <t>TEST (TT)</t>
+  </si>
+  <si>
+    <t>0x0E9301Ed503244cb587581C2416c92027De04CA7</t>
+  </si>
+  <si>
+    <t>52604560 TEST (TT) + 1 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x4b3b0687cb4Bde34C6aF8Fc5e76dfc4c9B4bD088</t>
+  </si>
+  <si>
+    <t>DogeBonk (BONK)</t>
+  </si>
+  <si>
+    <t>0xa04d17d305113A39cF3154D28ce95A5a9c380B79</t>
+  </si>
+  <si>
+    <t>9950398 DogeBonk (BONK) + 1 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x9867ad96A30e0f3094A45BCa1fb78c5a383F9F9f</t>
+  </si>
+  <si>
+    <t>DIFF (DIF)</t>
+  </si>
+  <si>
+    <t>0xd411156C50E8Cf5e8f442099a2c83Ac5cAc3ec2F</t>
+  </si>
+  <si>
+    <t>32 Wrapped BNB (WBNB) + 31623 DIFF (DIF)</t>
+  </si>
+  <si>
+    <t>0x8e0892F25056d8ad166576f4c4B48077600569d2</t>
+  </si>
+  <si>
+    <t>Minu (MINU)</t>
+  </si>
+  <si>
+    <t>0xf48f91df403976060cC05dBbf8A0901b09fdeFd4</t>
+  </si>
+  <si>
+    <t>75500383216221028 Tether USD (USDT) + 134833211354572316796111 Minu (MINU)</t>
+  </si>
+  <si>
+    <t>0x5f8c7f1048b2b96df1118Ac058d9e313738F2E58</t>
+  </si>
+  <si>
+    <t>4DaBoys (DABOYS)</t>
+  </si>
+  <si>
+    <t>0x93884dED289b6875F2F1fC28Bd8F132cd8Fbfe59</t>
+  </si>
+  <si>
+    <t>666354 4DaBoys (DABOYS) + 2 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0xf511D24b3Fe1CeD340DFa0F091B443c724ae691d</t>
+  </si>
+  <si>
+    <t>NT (NT)</t>
+  </si>
+  <si>
+    <t>0xe49606C33C85e1Cf8192b0D9fB6E6F6602D26366</t>
+  </si>
+  <si>
+    <t>864841683939676 Wrapped BNB (WBNB) + 1400000000000000000000000 NT (NT)</t>
+  </si>
+  <si>
+    <t>0xbea3E17205469F28b4C8859320C0e02C2f6Db783</t>
+  </si>
+  <si>
+    <t>TNC (TNC)</t>
+  </si>
+  <si>
+    <t>0x1DBCfDCEBd8f5eFE6D6a2275547F3A6506ee5bDe</t>
+  </si>
+  <si>
+    <t>11841112650515371716535565 TNC (TNC) + 1013669494476604 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x06CD457eD85584888A7404ab897e99cF95AF21e9</t>
+  </si>
+  <si>
+    <t>AirdropFindX Community (AFC)</t>
+  </si>
+  <si>
+    <t>0x1056C58F8da9ACc982240990D38aa2ba12728Ab8</t>
+  </si>
+  <si>
+    <t>100000000000000000000000 AirdropFindX Community (AFC) + 1000000000000000 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x0E7731DFE14A343BB436f0d974D75917B08EA416</t>
+  </si>
+  <si>
+    <t>Base (TBA)</t>
+  </si>
+  <si>
+    <t>0xd0bAbCBa6e23e2076B67A18Ec541342B4A560424</t>
+  </si>
+  <si>
+    <t>1 Wrapped BNB (WBNB) + 1000000000000000000000000000 Base (TBA)</t>
+  </si>
+  <si>
+    <t>0x751470712B4f7861bD9557a6Bc099ad0d3dBd46F</t>
+  </si>
+  <si>
+    <t>BYAS TOKEN (BYAS)</t>
+  </si>
+  <si>
+    <t>0x5DE56c867692277fAaF6756D6d30Eba2086E948E</t>
+  </si>
+  <si>
+    <t>70149275196970785204553 Tether USD (USDT) + 83184988239887457398771579 BYAS TOKEN (BYAS)</t>
+  </si>
+  <si>
+    <t>0xBA5e41A778F6515c74e6D3117e9d8Aea89cBa713</t>
+  </si>
+  <si>
+    <t>Wise Whale Token (WWT)</t>
+  </si>
+  <si>
+    <t>0xf84D54C2e467050b38019897cA345E89C8Bc136d</t>
+  </si>
+  <si>
+    <t>10000000000001 Wrapped BNB (WBNB) + 751142 Wise Whale Token (WWT)</t>
+  </si>
+  <si>
+    <t>0x64B6B730B56D3E582C29e982Ef4b24C8C1ADfb20</t>
+  </si>
+  <si>
+    <t>UseMe-ZomA (UMA)</t>
+  </si>
+  <si>
+    <t>0x8D55d3C0C9aa1DB399C0366815aa0859DC4DBd47</t>
+  </si>
+  <si>
+    <t>18738365144 UseMe-ZomA (UMA) + 1 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0xaB76833C72dcdEC2fDa580D534c53ad5A720e5d2</t>
+  </si>
+  <si>
+    <t>AXL INU (AXL)</t>
+  </si>
+  <si>
+    <t>0x25b24B3c47918b7962B3e49C4F468367F73CC0E0</t>
+  </si>
+  <si>
+    <t>67541208852282729296829311 AXL INU (AXL) + 1259195445184744408370 Ankr (ANKR)</t>
+  </si>
+  <si>
+    <t>0xf3B0d256d61b46ff798A937753d08FdEAA6c6649</t>
+  </si>
+  <si>
+    <t>FOURTWENTY (FOURTWENTY)</t>
+  </si>
+  <si>
+    <t>0xA758F8ED763Be8A06611bcDD4DD764CfcB1CE178</t>
+  </si>
+  <si>
+    <t>353553391 FOURTWENTY (FOURTWENTY) + 1 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x6c8a5cc55D31faD58415399AE249a57967B9dCfE</t>
+  </si>
+  <si>
+    <t>DGEAN (DGN)</t>
+  </si>
+  <si>
+    <t>0x34549Bf4A88e686cfDf1839DD03629Ac6Dc480a7</t>
+  </si>
+  <si>
+    <t>176980076100006626850005604 DGEAN (DGN) + 420359 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x1CADbD93A391beEf4246822f21B8C4A5178466Ff</t>
+  </si>
+  <si>
+    <t>0x866712CF449f15209bE3019D6DA6b5853adA0B9d</t>
+  </si>
+  <si>
+    <t>100000000000000000000000000 Base (TBA) + 1 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x8f8469FA09857cC0D60baBDF43D6d1A2b7131Be7</t>
+  </si>
+  <si>
+    <t>StargateToken (STG)</t>
+  </si>
+  <si>
+    <t>0xB0D502E938ed5f4df2E681fE6E419ff29631d62b</t>
+  </si>
+  <si>
+    <t>851 USD Coin (USDC) + 1176 StargateToken (STG)</t>
+  </si>
+  <si>
+    <t>0x65CE17Ee00959e0A086c14C966DAa7012256F643</t>
+  </si>
+  <si>
+    <t>FAT CAT (FATCAT)</t>
+  </si>
+  <si>
+    <t>0x55493E35e33Fcf811571707Ac5Bf1DbcB658bAfc</t>
+  </si>
+  <si>
+    <t>1239408596713132322 FAT CAT (FATCAT) + 1449566282027796764 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0xf15fde51D152C1125779E17D6dFdF59Da4746a68</t>
+  </si>
+  <si>
+    <t>HulkCoin (HULK)</t>
+  </si>
+  <si>
+    <t>0xd575dde7788f16E580c776F3eB44f68CC782014F</t>
+  </si>
+  <si>
+    <t>1 Wrapped BNB (WBNB) + 66741550 HulkCoin (HULK)</t>
+  </si>
+  <si>
+    <t>0x0eC8b2B5112AE81393f6f8db6eCC621E86016858</t>
+  </si>
+  <si>
+    <t>Tetther USDT (USDT)</t>
+  </si>
+  <si>
+    <t>0x0C0624526daD5056Ce81f1e9D4da852Ee39E4904</t>
+  </si>
+  <si>
+    <t>1 Tetther USDT (USDT) + 1000000000 Tether USD (USDT)</t>
+  </si>
+  <si>
+    <t>0x3B06f851d18e705FD4230f1743CB015D23B63556</t>
+  </si>
+  <si>
+    <t>AntRad (ANR)</t>
+  </si>
+  <si>
+    <t>0x94ff3129faf03B875F67EdCAD2b413FeE56232e5</t>
+  </si>
+  <si>
+    <t>998973440523074899 AntRad (ANR) + 1001030706503721 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x114D0330814F10aa53Fd8A838d3a46AA26983609</t>
+  </si>
+  <si>
+    <t>AIMug (AIM)</t>
+  </si>
+  <si>
+    <t>0xfC72E9063e8F16Cd7428D58f29E4E5c8dCd79E3b</t>
+  </si>
+  <si>
+    <t>12224294824123243 Wrapped BNB (WBNB) + 1252575938334836905785516 AIMug (AIM)</t>
+  </si>
+  <si>
+    <t>0x74832F2ba3e48B53ba3Cb9EAAFdfdF6f657849ea</t>
+  </si>
+  <si>
+    <t>PEPE (PEPE)</t>
+  </si>
+  <si>
+    <t>0xC0D8dbF182e4f7f3ad8C3C197149739C21c00fcD</t>
+  </si>
+  <si>
+    <t>3163 Wrapped BNB (WBNB) + 317 PEPE (PEPE)</t>
+  </si>
+  <si>
+    <t>0x3Ac10d515B5C47eE663789E43afb83a353c2B13f</t>
+  </si>
+  <si>
+    <t>AITECH (AITECH)</t>
+  </si>
+  <si>
+    <t>0x2D060Ef4d6BF7f9e5edDe373Ab735513c0e4F944</t>
+  </si>
+  <si>
+    <t>1964 AITECH (AITECH) + 512 Tether USD (USDT)</t>
+  </si>
+  <si>
+    <t>0x322EFabCE18A758EbF2D667c5D6b338fEa9977AD</t>
+  </si>
+  <si>
+    <t>EdithHackerCoin (EHC)</t>
+  </si>
+  <si>
+    <t>0xC0bd3B1478208f38807218E3F854D42d828562B4</t>
+  </si>
+  <si>
+    <t>40000000000000000 Wrapped BNB (WBNB) + 1000000000000000000 EdithHackerCoin (EHC)</t>
+  </si>
+  <si>
+    <t>0x6Ed41baF2F08efa1d6b5E74338F89F7b824e97aC</t>
+  </si>
+  <si>
+    <t>PEPE2 (PEPE2)</t>
+  </si>
+  <si>
+    <t>0xF8a7d7e29d4eC3BEe14be84521AE4b13194EF22b</t>
+  </si>
+  <si>
+    <t>3163 Wrapped BNB (WBNB) + 317 PEPE2 (PEPE2)</t>
+  </si>
+  <si>
+    <t>0x09f163EBcac4f007092353aF3905bd41303e954A</t>
+  </si>
+  <si>
+    <t>AILOL Coin (AILOL)</t>
+  </si>
+  <si>
+    <t>0xb6BaDAFDd40F19E7598079012c8e23a0dC5Ee6ee</t>
+  </si>
+  <si>
+    <t>318598271536676625174 Tether USD (USDT) + 2808555641670144090588079476864 AILOL Coin (AILOL)</t>
+  </si>
+  <si>
+    <t>0x10502fc7AFF706E7eCC47E75E08c87d7822F65f1</t>
+  </si>
+  <si>
+    <t>RenMinBi (Yuan)</t>
+  </si>
+  <si>
+    <t>0x427375018E57936ec68d343906Bf8FC6BB5305a5</t>
+  </si>
+  <si>
+    <t>152753 Ethereum Token (ETH) + 7 RenMinBi (Yuan)</t>
+  </si>
+  <si>
+    <t>0x240AD807965730CAB38A07F7C20aa822037c83A5</t>
+  </si>
+  <si>
+    <t>AI_OPTIMUS (AIOP)</t>
+  </si>
+  <si>
+    <t>0x422fA0412873b32847274a07388FbB4f5B2c1F2F</t>
+  </si>
+  <si>
+    <t>330224 AI_OPTIMUS (AIOP) + 4 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x7Ea385c8a5dc9C13574219036FDCCf0584fa63F9</t>
+  </si>
+  <si>
+    <t>Autonomous Algorithmic Strategies (AAS)</t>
+  </si>
+  <si>
+    <t>0xA2481031Af18196Cf29bA2F5f985E3C0236EF994</t>
+  </si>
+  <si>
+    <t>88898140908666634066737571684322 Autonomous Algorithmic Strategies (AAS) + 35729008999995904 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0xA608D1Ae5a52F72dE5E941EEf5A66e0bc4ac6Feb</t>
+  </si>
+  <si>
+    <t>0x78206499B02a8F11a5b31E2f39fb4288CBfF7CD8</t>
+  </si>
+  <si>
+    <t>31622777 Base (TBA) + 1 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0xB839fE5A0Ba4d093A1e427a0A34bd60d968d873C</t>
+  </si>
+  <si>
+    <t>VIC (VIC)</t>
+  </si>
+  <si>
+    <t>0x94967f5568d6628Cbc21116a2612A69356a2593B</t>
+  </si>
+  <si>
+    <t>519011207 Tether USD (USDT) + 1998005 VIC (VIC)</t>
+  </si>
+  <si>
+    <t>0x294eFb8200ACD141B6E0f7D72e3062e9d4ef9a5F</t>
+  </si>
+  <si>
+    <t>Aethir (Aethir)</t>
+  </si>
+  <si>
+    <t>0xd681418C1BB1a97dd3Bb473e130f5Ed0b696131c</t>
+  </si>
+  <si>
+    <t>201108859154973366998 Tether USD (USDT) + 498140047885747236104343413 Aethir (Aethir)</t>
+  </si>
+  <si>
+    <t>0x498d11013f4066C52Aa75b546De3e3Fb6f94aa68</t>
+  </si>
+  <si>
+    <t>A (A)</t>
+  </si>
+  <si>
+    <t>0x49c56C66D0492120821eb8a026783dCE31Ba09F6</t>
+  </si>
+  <si>
+    <t>B (B)</t>
+  </si>
+  <si>
+    <t>0x5Cbc1227D7Bc5Dc1414cfCcf4C9195f05Bd2dB70</t>
+  </si>
+  <si>
+    <t>91760562798118496 A (A) + 111000000000 B (B)</t>
+  </si>
+  <si>
+    <t>0x5293464a896720ccC07EdA363FdCf922783ABD3F</t>
+  </si>
+  <si>
+    <t>0x44bCe9054e74d6d0cAE7A10bc57632F41476CF60</t>
+  </si>
+  <si>
+    <t>UniswapV2Pair (WETH)</t>
+  </si>
+  <si>
+    <t>0xaF71bBefA4282fA0A0CD7fF2F48f7fef221FB916</t>
+  </si>
+  <si>
+    <t>10000000000000000 A (A) + 1000000000 UniswapV2Pair (WETH)</t>
+  </si>
+  <si>
+    <t>0x2a6A3454704751A8727C52a17d3bD15f9E7918F5</t>
+  </si>
+  <si>
+    <t>0x27020Df7D92Fb17EcAfFa575E01c673eB8259D8e</t>
+  </si>
+  <si>
+    <t>0xcf95Cb9ad41BA23b78dEcFeD752bBCdcF09fdf0D</t>
+  </si>
+  <si>
+    <t>1000000000000000 A (A) + 1000000000 UniswapV2Pair (WETH)</t>
+  </si>
+  <si>
+    <t>0xcb882dDb2cFc19acA570E1EafAdbaD6EbeA39c30</t>
+  </si>
+  <si>
+    <t>WETH (WETH)</t>
+  </si>
+  <si>
+    <t>0x663A02B0f1B5C14Cd752e60bb50235ab8e8230cF</t>
+  </si>
+  <si>
+    <t>0xD07A56D7B3282b6dB120D7735daE968DCDaFFdDC</t>
+  </si>
+  <si>
+    <t>1000000000000000 WETH (WETH) + 1000000000000000 A (A)</t>
+  </si>
+  <si>
+    <t>0x9C01d0bB70826bdCED43e9E64B85425CEC6BE623</t>
+  </si>
+  <si>
+    <t>test (test)</t>
+  </si>
+  <si>
+    <t>0x7CAcbE2D11C00FDceb763a676D75027694fF0dCF</t>
+  </si>
+  <si>
+    <t>1000000000000000 test (test) + 1000000000000000 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0xe61bbc84982Fe5449E0296fAC5731AAaE6A0217C</t>
+  </si>
+  <si>
+    <t>0xe37260073fCE612dB9409f523f572415720DF59F</t>
+  </si>
+  <si>
+    <t>990128419656030 test (test) + 1010000000 WETH (WETH)</t>
+  </si>
+  <si>
+    <t>0x3A7364A884A407961600857B157b02D74dd1FB7A</t>
+  </si>
+  <si>
+    <t>BRC20 BLOC (BBLOC)</t>
+  </si>
+  <si>
+    <t>0xb47fA9487cf0de3252979A6c9Ba7B841CBB516dF</t>
+  </si>
+  <si>
+    <t>2045161 BRC20 BLOC (BBLOC) + 1 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x0C0b910487a58f1880eFF02B52BF3FBa134858AC</t>
+  </si>
+  <si>
+    <t>Pair (Pair)</t>
+  </si>
+  <si>
+    <t>0x566EF898e2cdC153Fdd4660270D03D77ae30B4d6</t>
+  </si>
+  <si>
+    <t>Main (MAM)</t>
+  </si>
+  <si>
+    <t>0xCcb323431E39C1BE663d954CCD5E56c717176E46</t>
+  </si>
+  <si>
+    <t>60000000000 Pair (Pair) + 8337502084375522 Main (MAM)</t>
+  </si>
+  <si>
+    <t>0xEb8E59b69150283902DF540E75438fB9f53cf5e1</t>
+  </si>
+  <si>
+    <t>10000000000000 Wrapped BNB (WBNB) + 10000000000000000 Main (MAM)</t>
+  </si>
+  <si>
+    <t>0x8eBd9cc1C6453A56d4a0551dFB2624255d516142</t>
+  </si>
+  <si>
+    <t>BABYLON TOKEN (byb)</t>
+  </si>
+  <si>
+    <t>0x0410302aa6Ff81701d764884593d661e0412B15f</t>
+  </si>
+  <si>
+    <t>77902616950 BABYLON TOKEN (byb) + 128540743065936704 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0xF0438cd6A70F98cc2364eCddC3B1FCcEcAd6f1d5</t>
+  </si>
+  <si>
+    <t>A                                                           0xC9d806A6faE6368b152EcdBCD2dBb0B2b48DC2381 (A)</t>
+  </si>
+  <si>
+    <t>0x157A77048d8D360E17AC9116c3F2e17f3349ba22</t>
+  </si>
+  <si>
+    <t>1000000000000000000 A                                                           0xC9d806A6faE6368b152EcdBCD2dBb0B2b48DC2381 (A) + 100000000000 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x891Ee0A959DE43Fd894D4559558a685789E67c57</t>
+  </si>
+  <si>
+    <t>PRODUS (PRODUS)</t>
+  </si>
+  <si>
+    <t>0xB5485Ac4Ed55f84d0E9794211D45BC807ef55617</t>
+  </si>
+  <si>
+    <t>56026482642878684472 Tether USD (USDT) + 44641204613935623451 PRODUS (PRODUS)</t>
+  </si>
+  <si>
+    <t>0xF6A0729FdE9d9436440dc678bD7CB22F44f46988</t>
+  </si>
+  <si>
+    <t>0x9aE4d4E5BA6Ea4543Bb8775b3D9fF83bae053AB6</t>
+  </si>
+  <si>
+    <t>999999899999913001 A (A) + 10000001003010 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x95c0A7A0B29CD6734E3f421fd4134F51206950b6</t>
+  </si>
+  <si>
+    <t>MetaGIGA (MetaGIGA)</t>
+  </si>
+  <si>
+    <t>0xd4e025D7Cf73Bfb59D6f71C596Db71a8676dEc63</t>
+  </si>
+  <si>
+    <t>22 Wrapped BNB (WBNB) + 47530 MetaGIGA (MetaGIGA)</t>
+  </si>
+  <si>
+    <t>0xf9Dd57829f68595E6180Dbd9CD385861FA04F102</t>
+  </si>
+  <si>
+    <t>X (X)</t>
+  </si>
+  <si>
+    <t>0xd2e5F0B0ccAB914cb2887e1Cf409C4eb849E3232</t>
+  </si>
+  <si>
+    <t>1 Wrapped BNB (WBNB) + 48552197 X (X)</t>
+  </si>
+  <si>
+    <t>0x265D748745c591F517B0c8e27865115B2C792d3a</t>
+  </si>
+  <si>
+    <t>X2 (X2)</t>
+  </si>
+  <si>
+    <t>0x538d4d8228921Ec2347D6eB911987D0bF39669e0</t>
+  </si>
+  <si>
+    <t>1285999421 X2 (X2) + 1 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0xD689752A3156Bdb790CDCdb973481354136DF1f9</t>
+  </si>
+  <si>
+    <t>TESTER (TTER)</t>
+  </si>
+  <si>
+    <t>0xd6DB38e835CE84cE14C7f5DDD67c2093A9743A52</t>
+  </si>
+  <si>
+    <t>1000000000000 Wrapped BNB (WBNB) + 10000000000000000 TESTER (TTER)</t>
+  </si>
+  <si>
+    <t>0x9579BC09fB620B531F9f5A2426B9B3f776b55310</t>
+  </si>
+  <si>
+    <t>0x9eb87612622Dc9963adc7F66Fc56f64aE20e6eA1</t>
+  </si>
+  <si>
+    <t>300407 TESTER (TTER) + 4 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x647BC1Cd8d7Fa893730F9550A3DE701EEEef2Cc1</t>
+  </si>
+  <si>
+    <t>0x9ecFcAB246746eC4EB514dEd04d397C1075074d1</t>
+  </si>
+  <si>
+    <t>9998999999340133 TESTER (TTER) + 1000100311 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x4f57623375aAC061656E53ae63D2975787D808Cc</t>
+  </si>
+  <si>
+    <t>BSC2024 (BSCC)</t>
+  </si>
+  <si>
+    <t>0xaa004c356dff3288f4Fe3F4839c4224721051951</t>
+  </si>
+  <si>
+    <t>195049862141209777688670608 BSC2024 (BSCC) + 3600000000000000 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0xa3559072C4ee15D9Fb8154EC60374Bd0f9fcD39B</t>
+  </si>
+  <si>
+    <t>MUADEMUADE (MDMD)</t>
+  </si>
+  <si>
+    <t>0xF4F3F84B66C75E5E823384cB10820996596b85d7</t>
+  </si>
+  <si>
+    <t>1 Wrapped BNB (WBNB) + 2846050 MUADEMUADE (MDMD)</t>
+  </si>
+  <si>
+    <t>0xF24d52fb1EE2E2443F0552A79ac21046E25cd7C3</t>
+  </si>
+  <si>
+    <t>0x6b7580e16f0B448655CCb81D4370C0866555D3ED</t>
+  </si>
+  <si>
+    <t>316228 MUADEMUADE (MDMD) + 4 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0xC5BC907a2733eA1fd12c61efc558813AAe10ad0f</t>
+  </si>
+  <si>
+    <t>0xA93c930e74aCbB0361a89cCfba720D2aa9F9A7EF</t>
+  </si>
+  <si>
+    <t>0x1Cf60878b218aef871a92FBdaF9EAD4b4c3812D3</t>
+  </si>
+  <si>
+    <t>0xC818aFa112AaF4D0c636C5DC1513a6165b8E33e1</t>
+  </si>
+  <si>
+    <t>4 Wrapped BNB (WBNB) + 316225 MUADEMUADE (MDMD)</t>
+  </si>
+  <si>
+    <t>0x623918861202D00C8307c1F66377287F007689cD</t>
+  </si>
+  <si>
+    <t>0xd81B294b3a9cDbCDD9aE7F79326d040b2492c2a9</t>
+  </si>
+  <si>
+    <t>3163 Wrapped BNB (WBNB) + 317 A (A)</t>
+  </si>
+  <si>
+    <t>0x6b4bfb2164a156879E18A5Ae97d77b89576326A3</t>
+  </si>
+  <si>
+    <t>Swagger Mango (SMANGO)</t>
+  </si>
+  <si>
+    <t>0x090109f4276F369320b3cc2f570b9191E5a136d9</t>
+  </si>
+  <si>
+    <t>147669406006349405748 Swagger Mango (SMANGO) + 2712500000000000 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x015123B6cf64324Ff9E46D5CB662acd94f85EA87</t>
+  </si>
+  <si>
+    <t>TEST (TEST)</t>
+  </si>
+  <si>
+    <t>0x11D3960FA505D5B99647C97640037F42A7Bb2a68</t>
+  </si>
+  <si>
+    <t>3163 TEST (TEST) + 317 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x345902d4b7bf149e9D3f6f03926F6b6B0F774A31</t>
+  </si>
+  <si>
+    <t>DNCC (DNCC)</t>
+  </si>
+  <si>
+    <t>0x075e7785975AD1E51CBC062dfDe3F53a40d9cAaD</t>
+  </si>
+  <si>
+    <t>64494619647316111299519451708 DNCC (DNCC) + 785101638656286965 Tether USD (USDT)</t>
+  </si>
+  <si>
+    <t>0x89fA40bB9b1F033002876C3De49C04559eC912B8</t>
+  </si>
+  <si>
+    <t>TOMACO (TMCO)</t>
+  </si>
+  <si>
+    <t>0x646bf86BCCA848f6cA6Bdaa7C3A8A4752b825157</t>
+  </si>
+  <si>
+    <t>176867183027165323155867178 TOMACO (TMCO) + 12392822110022282 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x825FB08ad7e048A81fF2d931480bF9089c46105f</t>
+  </si>
+  <si>
+    <t>TestBNB (TestBNB)</t>
+  </si>
+  <si>
+    <t>0x675581806b0055044B7DDC60B08A5c27ABDECC97</t>
+  </si>
+  <si>
+    <t>316196144 TestBNB (TestBNB) + 1 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x43df2a71c6D0434B5894ea1C2E43e90fab53B163</t>
+  </si>
+  <si>
+    <t>0x59B1716eB2144e39f226862D3b7D47Fc512a6a91</t>
+  </si>
+  <si>
+    <t>282807358 TestBNB (TestBNB) + 1 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0xAc6Daddaa9DEbC00Ac450c7B281A6378827B1828</t>
+  </si>
+  <si>
+    <t>ASDAR Coin (ASDAR Coin)</t>
+  </si>
+  <si>
+    <t>0x3C66e9f86d1c2c3CFE5F1a4A97B14a2fF5497c60</t>
+  </si>
+  <si>
+    <t>41263222802890013790 ASDAR Coin (ASDAR Coin) + 5807106064806708029 Tether USD (USDT)</t>
+  </si>
+  <si>
+    <t>0xA567A0d69081920616E8750022C02c6B8F732e1D</t>
+  </si>
+  <si>
+    <t>Mind AI (MDAI)</t>
+  </si>
+  <si>
+    <t>0x177d9d535D7477046A666e78b0dc2c3049d19f60</t>
+  </si>
+  <si>
+    <t>894427191 Mind AI (MDAI) + 1 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0xbD8f81318B38b28e8D8aA75e5848442B57E5d882</t>
+  </si>
+  <si>
+    <t>Samurai Bot (SBMX)</t>
+  </si>
+  <si>
+    <t>0x5663F2BcCc53775002c63c553dB74a437abb5246</t>
+  </si>
+  <si>
+    <t>5 Samurai Bot (SBMX) + 210819 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0xA53c56e68fE97C17DA1Aa8e5444D8551EA9E2F1F</t>
+  </si>
+  <si>
+    <t>BUSD Token (BUSD)</t>
+  </si>
+  <si>
+    <t>0xe9e7CEA3DedcA5984780Bafc599bD69ADd087D56</t>
+  </si>
+  <si>
+    <t>DEVIN AI (DEVIN)</t>
+  </si>
+  <si>
+    <t>0xEc3e75eF573c1915c6619b34aEb4C86867E54D28</t>
+  </si>
+  <si>
+    <t>375000000000000000000 BUSD Token (BUSD) + 198525987607922788436539 DEVIN AI (DEVIN)</t>
+  </si>
+  <si>
+    <t>0x3027F1497A0b23926866A235Ee6DaB599700C4cf</t>
+  </si>
+  <si>
+    <t>Yarodar (Yarodar)</t>
+  </si>
+  <si>
+    <t>0x24Fe4F90D350A61B4CA0c6A1e07D0f481E2Df54D</t>
+  </si>
+  <si>
+    <t>49935418197763151298560 Yarodar (Yarodar) + 49864713045811841555209 ASDAR Coin (ASDAR Coin)</t>
+  </si>
+  <si>
+    <t>0x84f6a9BF42236Ee7276AEE5e34DBaA34A78cd4Fd</t>
+  </si>
+  <si>
+    <t>86023175339185188372 Yarodar (Yarodar) + 11606343807331913428 Tether USD (USDT)</t>
+  </si>
+  <si>
+    <t>0x224bd3B28e6b244f1bb45fd0a65fD389062c2b2B</t>
+  </si>
+  <si>
+    <t>PEPE by Matt Furie ($PEPE)</t>
+  </si>
+  <si>
+    <t>0x13aB36e26D632E41C8e5bb85Fc128E705aD1836B</t>
+  </si>
+  <si>
+    <t>3020000779771746073955506866139319 PEPE by Matt Furie ($PEPE) + 99707083001 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0xF6dc98d4F28c6aE1714B947147798184c6082daa</t>
+  </si>
+  <si>
+    <t>BOMU (BOMU)</t>
+  </si>
+  <si>
+    <t>0x16861B0329b8c968Aa2a34D9Fd50724ffdd824a2</t>
+  </si>
+  <si>
+    <t>31623 BOMU (BOMU) + 32 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x193b307864928c2e28501A0f8ae080B6D4560F70</t>
+  </si>
+  <si>
+    <t>MAMIVA (MMV)</t>
+  </si>
+  <si>
+    <t>0xFA749b58d91733301786aF7625CE68251B3F0518</t>
+  </si>
+  <si>
+    <t>1000 Wrapped BNB (WBNB) + 1000 MAMIVA (MMV)</t>
+  </si>
+  <si>
+    <t>0x59d33C4Ec324c8C83680a8B0963531aC4874649e</t>
+  </si>
+  <si>
+    <t>RandomBox (RB)</t>
+  </si>
+  <si>
+    <t>0xd52b96935b2a2eA2CDF5493EDB77057303f48B8C</t>
+  </si>
+  <si>
+    <t>1 Wrapped BNB (WBNB) + 141421357 RandomBox (RB)</t>
+  </si>
+  <si>
+    <t>0x532Ca386f5402181a05BEE73631818eC2B2139b8</t>
+  </si>
+  <si>
+    <t>MellStroyToken (MELLSTR)</t>
+  </si>
+  <si>
+    <t>0xce547fCE930bc24C14e9909cAE56093C5717E2b0</t>
+  </si>
+  <si>
+    <t>11000000000000000000 Tether USD (USDT) + 90933891061198508684186597 MellStroyToken (MELLSTR)</t>
+  </si>
+  <si>
+    <t>0x5bc89D8858aA6459aD23C87D6344Cd6f409e33bB</t>
+  </si>
+  <si>
+    <t>Deploy Ai (DEPLOY AI)</t>
+  </si>
+  <si>
+    <t>0x2954c2e811B7d61B995C5d3289BD1C63F30bC977</t>
+  </si>
+  <si>
+    <t>210000000000000000000000000 Deploy Ai (DEPLOY AI) + 10000000000 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0xC375BF6d62ff34970a6eDCA30fD828d4434ACf84</t>
+  </si>
+  <si>
+    <t>Pepeponk (Pepeponk)</t>
+  </si>
+  <si>
+    <t>0x47A1C6e829A3D8B508CDCb1B7ba32e5d068b1A0F</t>
+  </si>
+  <si>
+    <t>165382953679699840965 Pepeponk (Pepeponk) + 1273601000000000 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x0aedBC6a21Dfb1a9b31d96bB1067F769Ae94F96C</t>
+  </si>
+  <si>
+    <t>0xeFf2abDbf84da570fa744c4f38D65f8341981220</t>
+  </si>
+  <si>
+    <t>1000001003011 Wrapped BNB (WBNB) + 999998999999033003 A (A)</t>
+  </si>
+  <si>
+    <t>0xeb26ac653894f85f841649Dd9C35c1aF4585aa4c</t>
+  </si>
+  <si>
+    <t>0xBe2F3CcBFBed53379423E01DBc279Bf40cFd0100</t>
+  </si>
+  <si>
+    <t>200000000000 Wrapped BNB (WBNB) + 1000000000000000000 A (A)</t>
+  </si>
+  <si>
+    <t>0xb54D1F038905F58ca01A0A67f7b88bbA2B3B5457</t>
+  </si>
+  <si>
+    <t>0x5bBd55D02472D1319499c79E648DcA8aD0038C8C</t>
+  </si>
+  <si>
+    <t>999997998028010915 A (A) + 1000002008 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0xD556C27e8855Ff00c1e42b810e0cfC79a027fe2D</t>
+  </si>
+  <si>
+    <t>0x7fF75954Bc30117D2dACB013D0514Db36F4921Be</t>
+  </si>
+  <si>
+    <t>99989999999990182 A (A) + 10001003109339 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x75d311A205450071B8A04C8Bc8292dDddBc6bacf</t>
+  </si>
+  <si>
+    <t>0xCbA57A597d765Fd2a9e5F9eB4030215313BBb48D</t>
+  </si>
+  <si>
+    <t>1000001009021 Wrapped BNB (WBNB) + 999998999999033004 A (A)</t>
+  </si>
+  <si>
+    <t>0x03A9Fa713dfBd7faFa4b7FF579293a2055A3cC30</t>
+  </si>
+  <si>
+    <t>GRU (GRU)</t>
+  </si>
+  <si>
+    <t>0x44aC52F50A00A1e4ad4d5c6E6CEaAF5E269fCDAa</t>
+  </si>
+  <si>
+    <t>2000000000000003160721 GRU (GRU) + 632767017398879 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x59249cd9baE8B9d2e22920502260d93eD67Afc86</t>
+  </si>
+  <si>
+    <t>PrudenceWifHat (PRWH)</t>
+  </si>
+  <si>
+    <t>0x81835368CEA452A4304Ff2b26E4c5F3e2F6c4Af3</t>
+  </si>
+  <si>
+    <t>34920148 PrudenceWifHat (PRWH) + 1 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x11A866f17D96c662CDcB707fdd47a12C3253cB88</t>
+  </si>
+  <si>
+    <t>FreshWaterCoin (FWC)</t>
+  </si>
+  <si>
+    <t>0xD7d1E7ad26eD0a4C2C2fb4af98e1Cd66C80622f4</t>
+  </si>
+  <si>
+    <t>65054918177973 Wrapped BNB (WBNB) + 77083922845604 FreshWaterCoin (FWC)</t>
+  </si>
+  <si>
+    <t>0xD3a34025c8CD6c58B91ebBbC082C234da1214a55</t>
+  </si>
+  <si>
+    <t>哈希值 (HCT)</t>
+  </si>
+  <si>
+    <t>0x01B7b50221523342591933b1b424ee14F50f4994</t>
+  </si>
+  <si>
+    <t>1273448000000000000000000 哈希值 (HCT) + 150000000000000000 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x609e8f9bbaEf75a65C70c8556e95Dc0B77d12fE6</t>
+  </si>
+  <si>
+    <t>Howl (HOWL)</t>
+  </si>
+  <si>
+    <t>0x9453E5bFEbFaF2FaccaA5bb3E1d41eD9F9f93FA7</t>
+  </si>
+  <si>
+    <t>103831501991175924418339647325 Howl (HOWL) + 279584777693609592 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x1CC0959ced597C2eB838e1e2a46766B08C853401</t>
+  </si>
+  <si>
+    <t>0x2Bb0E09D89dD69A13054E778471D1DE137c28CE9</t>
+  </si>
+  <si>
+    <t>9999999 A (A) + 1 Wrapped BNB (WBNB)</t>
+  </si>
+  <si>
+    <t>0x613DBec13743D2AF3A5B2303A1926f738791fb28</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>0x8F692c7fD8957440dD1f4FC1c5bc794013E78C4e</t>
+  </si>
+  <si>
+    <t>10000000000000000 Unknown + 3749235000000000 Wrapped BNB (WBNB)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,9 +2067,3276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G142"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34" t="s">
+        <v>142</v>
+      </c>
+      <c r="G34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" t="s">
+        <v>149</v>
+      </c>
+      <c r="F36" t="s">
+        <v>150</v>
+      </c>
+      <c r="G36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>157</v>
+      </c>
+      <c r="F38" t="s">
+        <v>158</v>
+      </c>
+      <c r="G38" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" t="s">
+        <v>162</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" t="s">
+        <v>157</v>
+      </c>
+      <c r="F40" t="s">
+        <v>158</v>
+      </c>
+      <c r="G40" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" t="s">
+        <v>167</v>
+      </c>
+      <c r="D41" t="s">
+        <v>168</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" t="s">
+        <v>171</v>
+      </c>
+      <c r="D42" t="s">
+        <v>172</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" t="s">
+        <v>175</v>
+      </c>
+      <c r="F43" t="s">
+        <v>176</v>
+      </c>
+      <c r="G43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" t="s">
+        <v>179</v>
+      </c>
+      <c r="F44" t="s">
+        <v>180</v>
+      </c>
+      <c r="G44" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" t="s">
+        <v>183</v>
+      </c>
+      <c r="F45" t="s">
+        <v>184</v>
+      </c>
+      <c r="G45" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" t="s">
+        <v>187</v>
+      </c>
+      <c r="F46" t="s">
+        <v>188</v>
+      </c>
+      <c r="G46" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>190</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>191</v>
+      </c>
+      <c r="F47" t="s">
+        <v>192</v>
+      </c>
+      <c r="G47" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>194</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>195</v>
+      </c>
+      <c r="F48" t="s">
+        <v>196</v>
+      </c>
+      <c r="G48" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>198</v>
+      </c>
+      <c r="C49" t="s">
+        <v>199</v>
+      </c>
+      <c r="D49" t="s">
+        <v>200</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>202</v>
+      </c>
+      <c r="C50" t="s">
+        <v>203</v>
+      </c>
+      <c r="D50" t="s">
+        <v>204</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>206</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" t="s">
+        <v>207</v>
+      </c>
+      <c r="F51" t="s">
+        <v>208</v>
+      </c>
+      <c r="G51" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>210</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
+        <v>211</v>
+      </c>
+      <c r="F52" t="s">
+        <v>212</v>
+      </c>
+      <c r="G52" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>214</v>
+      </c>
+      <c r="C53" t="s">
+        <v>215</v>
+      </c>
+      <c r="D53" t="s">
+        <v>216</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>218</v>
+      </c>
+      <c r="C54" t="s">
+        <v>219</v>
+      </c>
+      <c r="D54" t="s">
+        <v>220</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>222</v>
+      </c>
+      <c r="C55" t="s">
+        <v>223</v>
+      </c>
+      <c r="D55" t="s">
+        <v>224</v>
+      </c>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>226</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
+        <v>227</v>
+      </c>
+      <c r="F56" t="s">
+        <v>228</v>
+      </c>
+      <c r="G56" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>230</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" t="s">
+        <v>231</v>
+      </c>
+      <c r="F57" t="s">
+        <v>232</v>
+      </c>
+      <c r="G57" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>234</v>
+      </c>
+      <c r="C58" t="s">
+        <v>235</v>
+      </c>
+      <c r="D58" t="s">
+        <v>236</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" t="s">
+        <v>239</v>
+      </c>
+      <c r="F59" t="s">
+        <v>240</v>
+      </c>
+      <c r="G59" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>242</v>
+      </c>
+      <c r="C60" t="s">
+        <v>243</v>
+      </c>
+      <c r="D60" t="s">
+        <v>244</v>
+      </c>
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>246</v>
+      </c>
+      <c r="C61" t="s">
+        <v>247</v>
+      </c>
+      <c r="D61" t="s">
+        <v>248</v>
+      </c>
+      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>250</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" t="s">
+        <v>251</v>
+      </c>
+      <c r="F62" t="s">
+        <v>252</v>
+      </c>
+      <c r="G62" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>254</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" t="s">
+        <v>255</v>
+      </c>
+      <c r="F63" t="s">
+        <v>256</v>
+      </c>
+      <c r="G63" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>258</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
+        <v>259</v>
+      </c>
+      <c r="F64" t="s">
+        <v>260</v>
+      </c>
+      <c r="G64" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>262</v>
+      </c>
+      <c r="C65" t="s">
+        <v>263</v>
+      </c>
+      <c r="D65" t="s">
+        <v>264</v>
+      </c>
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>266</v>
+      </c>
+      <c r="C66" t="s">
+        <v>267</v>
+      </c>
+      <c r="D66" t="s">
+        <v>268</v>
+      </c>
+      <c r="E66" t="s">
+        <v>52</v>
+      </c>
+      <c r="F66" t="s">
+        <v>53</v>
+      </c>
+      <c r="G66" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>270</v>
+      </c>
+      <c r="C67" t="s">
+        <v>271</v>
+      </c>
+      <c r="D67" t="s">
+        <v>272</v>
+      </c>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>274</v>
+      </c>
+      <c r="C68" t="s">
+        <v>275</v>
+      </c>
+      <c r="D68" t="s">
+        <v>276</v>
+      </c>
+      <c r="E68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>278</v>
+      </c>
+      <c r="C69" t="s">
+        <v>251</v>
+      </c>
+      <c r="D69" t="s">
+        <v>279</v>
+      </c>
+      <c r="E69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>281</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" t="s">
+        <v>282</v>
+      </c>
+      <c r="F70" t="s">
+        <v>283</v>
+      </c>
+      <c r="G70" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>285</v>
+      </c>
+      <c r="C71" t="s">
+        <v>286</v>
+      </c>
+      <c r="D71" t="s">
+        <v>287</v>
+      </c>
+      <c r="E71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>289</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" t="s">
+        <v>290</v>
+      </c>
+      <c r="F72" t="s">
+        <v>291</v>
+      </c>
+      <c r="G72" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>293</v>
+      </c>
+      <c r="C73" t="s">
+        <v>294</v>
+      </c>
+      <c r="D73" t="s">
+        <v>295</v>
+      </c>
+      <c r="E73" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>297</v>
+      </c>
+      <c r="C74" t="s">
+        <v>298</v>
+      </c>
+      <c r="D74" t="s">
+        <v>299</v>
+      </c>
+      <c r="E74" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>301</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" t="s">
+        <v>302</v>
+      </c>
+      <c r="F75" t="s">
+        <v>303</v>
+      </c>
+      <c r="G75" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>305</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" t="s">
+        <v>306</v>
+      </c>
+      <c r="F76" t="s">
+        <v>307</v>
+      </c>
+      <c r="G76" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>309</v>
+      </c>
+      <c r="C77" t="s">
+        <v>310</v>
+      </c>
+      <c r="D77" t="s">
+        <v>311</v>
+      </c>
+      <c r="E77" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>313</v>
+      </c>
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" t="s">
+        <v>314</v>
+      </c>
+      <c r="F78" t="s">
+        <v>315</v>
+      </c>
+      <c r="G78" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>317</v>
+      </c>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" t="s">
+        <v>318</v>
+      </c>
+      <c r="F79" t="s">
+        <v>319</v>
+      </c>
+      <c r="G79" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>321</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" t="s">
+        <v>322</v>
+      </c>
+      <c r="F80" t="s">
+        <v>323</v>
+      </c>
+      <c r="G80" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>325</v>
+      </c>
+      <c r="C81" t="s">
+        <v>58</v>
+      </c>
+      <c r="D81" t="s">
+        <v>59</v>
+      </c>
+      <c r="E81" t="s">
+        <v>326</v>
+      </c>
+      <c r="F81" t="s">
+        <v>327</v>
+      </c>
+      <c r="G81" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>329</v>
+      </c>
+      <c r="C82" t="s">
+        <v>330</v>
+      </c>
+      <c r="D82" t="s">
+        <v>331</v>
+      </c>
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>333</v>
+      </c>
+      <c r="C83" t="s">
+        <v>334</v>
+      </c>
+      <c r="D83" t="s">
+        <v>335</v>
+      </c>
+      <c r="E83" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>337</v>
+      </c>
+      <c r="C84" t="s">
+        <v>251</v>
+      </c>
+      <c r="D84" t="s">
+        <v>338</v>
+      </c>
+      <c r="E84" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>340</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" t="s">
+        <v>341</v>
+      </c>
+      <c r="F85" t="s">
+        <v>342</v>
+      </c>
+      <c r="G85" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>344</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" t="s">
+        <v>345</v>
+      </c>
+      <c r="F86" t="s">
+        <v>346</v>
+      </c>
+      <c r="G86" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>348</v>
+      </c>
+      <c r="C87" t="s">
+        <v>349</v>
+      </c>
+      <c r="D87" t="s">
+        <v>350</v>
+      </c>
+      <c r="E87" t="s">
+        <v>351</v>
+      </c>
+      <c r="F87" t="s">
+        <v>352</v>
+      </c>
+      <c r="G87" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>354</v>
+      </c>
+      <c r="C88" t="s">
+        <v>349</v>
+      </c>
+      <c r="D88" t="s">
+        <v>355</v>
+      </c>
+      <c r="E88" t="s">
+        <v>356</v>
+      </c>
+      <c r="F88" t="s">
+        <v>357</v>
+      </c>
+      <c r="G88" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>359</v>
+      </c>
+      <c r="C89" t="s">
+        <v>349</v>
+      </c>
+      <c r="D89" t="s">
+        <v>360</v>
+      </c>
+      <c r="E89" t="s">
+        <v>356</v>
+      </c>
+      <c r="F89" t="s">
+        <v>361</v>
+      </c>
+      <c r="G89" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>363</v>
+      </c>
+      <c r="C90" t="s">
+        <v>364</v>
+      </c>
+      <c r="D90" t="s">
+        <v>365</v>
+      </c>
+      <c r="E90" t="s">
+        <v>349</v>
+      </c>
+      <c r="F90" t="s">
+        <v>366</v>
+      </c>
+      <c r="G90" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>368</v>
+      </c>
+      <c r="C91" t="s">
+        <v>369</v>
+      </c>
+      <c r="D91" t="s">
+        <v>370</v>
+      </c>
+      <c r="E91" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>372</v>
+      </c>
+      <c r="C92" t="s">
+        <v>369</v>
+      </c>
+      <c r="D92" t="s">
+        <v>370</v>
+      </c>
+      <c r="E92" t="s">
+        <v>364</v>
+      </c>
+      <c r="F92" t="s">
+        <v>373</v>
+      </c>
+      <c r="G92" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>375</v>
+      </c>
+      <c r="C93" t="s">
+        <v>376</v>
+      </c>
+      <c r="D93" t="s">
+        <v>377</v>
+      </c>
+      <c r="E93" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>379</v>
+      </c>
+      <c r="C94" t="s">
+        <v>380</v>
+      </c>
+      <c r="D94" t="s">
+        <v>381</v>
+      </c>
+      <c r="E94" t="s">
+        <v>382</v>
+      </c>
+      <c r="F94" t="s">
+        <v>383</v>
+      </c>
+      <c r="G94" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>385</v>
+      </c>
+      <c r="C95" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" t="s">
+        <v>382</v>
+      </c>
+      <c r="F95" t="s">
+        <v>383</v>
+      </c>
+      <c r="G95" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>387</v>
+      </c>
+      <c r="C96" t="s">
+        <v>388</v>
+      </c>
+      <c r="D96" t="s">
+        <v>389</v>
+      </c>
+      <c r="E96" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>391</v>
+      </c>
+      <c r="C97" t="s">
+        <v>392</v>
+      </c>
+      <c r="D97" t="s">
+        <v>393</v>
+      </c>
+      <c r="E97" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>395</v>
+      </c>
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" t="s">
+        <v>396</v>
+      </c>
+      <c r="F98" t="s">
+        <v>397</v>
+      </c>
+      <c r="G98" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>399</v>
+      </c>
+      <c r="C99" t="s">
+        <v>349</v>
+      </c>
+      <c r="D99" t="s">
+        <v>400</v>
+      </c>
+      <c r="E99" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>402</v>
+      </c>
+      <c r="C100" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" t="s">
+        <v>403</v>
+      </c>
+      <c r="F100" t="s">
+        <v>404</v>
+      </c>
+      <c r="G100" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>406</v>
+      </c>
+      <c r="C101" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" t="s">
+        <v>407</v>
+      </c>
+      <c r="F101" t="s">
+        <v>408</v>
+      </c>
+      <c r="G101" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>410</v>
+      </c>
+      <c r="C102" t="s">
+        <v>411</v>
+      </c>
+      <c r="D102" t="s">
+        <v>412</v>
+      </c>
+      <c r="E102" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>414</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" t="s">
+        <v>415</v>
+      </c>
+      <c r="F103" t="s">
+        <v>416</v>
+      </c>
+      <c r="G103" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>418</v>
+      </c>
+      <c r="C104" t="s">
+        <v>415</v>
+      </c>
+      <c r="D104" t="s">
+        <v>419</v>
+      </c>
+      <c r="E104" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>421</v>
+      </c>
+      <c r="C105" t="s">
+        <v>415</v>
+      </c>
+      <c r="D105" t="s">
+        <v>422</v>
+      </c>
+      <c r="E105" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>424</v>
+      </c>
+      <c r="C106" t="s">
+        <v>425</v>
+      </c>
+      <c r="D106" t="s">
+        <v>426</v>
+      </c>
+      <c r="E106" t="s">
+        <v>10</v>
+      </c>
+      <c r="F106" t="s">
+        <v>11</v>
+      </c>
+      <c r="G106" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>428</v>
+      </c>
+      <c r="C107" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" t="s">
+        <v>429</v>
+      </c>
+      <c r="F107" t="s">
+        <v>430</v>
+      </c>
+      <c r="G107" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>432</v>
+      </c>
+      <c r="C108" t="s">
+        <v>429</v>
+      </c>
+      <c r="D108" t="s">
+        <v>433</v>
+      </c>
+      <c r="E108" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>435</v>
+      </c>
+      <c r="C109" t="s">
+        <v>429</v>
+      </c>
+      <c r="D109" t="s">
+        <v>436</v>
+      </c>
+      <c r="E109" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>437</v>
+      </c>
+      <c r="C110" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" t="s">
+        <v>429</v>
+      </c>
+      <c r="F110" t="s">
+        <v>438</v>
+      </c>
+      <c r="G110" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>440</v>
+      </c>
+      <c r="C111" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" t="s">
+        <v>349</v>
+      </c>
+      <c r="F111" t="s">
+        <v>441</v>
+      </c>
+      <c r="G111" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>443</v>
+      </c>
+      <c r="C112" t="s">
+        <v>444</v>
+      </c>
+      <c r="D112" t="s">
+        <v>445</v>
+      </c>
+      <c r="E112" t="s">
+        <v>10</v>
+      </c>
+      <c r="F112" t="s">
+        <v>11</v>
+      </c>
+      <c r="G112" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>447</v>
+      </c>
+      <c r="C113" t="s">
+        <v>448</v>
+      </c>
+      <c r="D113" t="s">
+        <v>449</v>
+      </c>
+      <c r="E113" t="s">
+        <v>10</v>
+      </c>
+      <c r="F113" t="s">
+        <v>11</v>
+      </c>
+      <c r="G113" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>451</v>
+      </c>
+      <c r="C114" t="s">
+        <v>452</v>
+      </c>
+      <c r="D114" t="s">
+        <v>453</v>
+      </c>
+      <c r="E114" t="s">
+        <v>14</v>
+      </c>
+      <c r="F114" t="s">
+        <v>15</v>
+      </c>
+      <c r="G114" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>455</v>
+      </c>
+      <c r="C115" t="s">
+        <v>456</v>
+      </c>
+      <c r="D115" t="s">
+        <v>457</v>
+      </c>
+      <c r="E115" t="s">
+        <v>10</v>
+      </c>
+      <c r="F115" t="s">
+        <v>11</v>
+      </c>
+      <c r="G115" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>459</v>
+      </c>
+      <c r="C116" t="s">
+        <v>460</v>
+      </c>
+      <c r="D116" t="s">
+        <v>461</v>
+      </c>
+      <c r="E116" t="s">
+        <v>10</v>
+      </c>
+      <c r="F116" t="s">
+        <v>11</v>
+      </c>
+      <c r="G116" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>463</v>
+      </c>
+      <c r="C117" t="s">
+        <v>460</v>
+      </c>
+      <c r="D117" t="s">
+        <v>464</v>
+      </c>
+      <c r="E117" t="s">
+        <v>10</v>
+      </c>
+      <c r="F117" t="s">
+        <v>11</v>
+      </c>
+      <c r="G117" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>466</v>
+      </c>
+      <c r="C118" t="s">
+        <v>467</v>
+      </c>
+      <c r="D118" t="s">
+        <v>468</v>
+      </c>
+      <c r="E118" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118" t="s">
+        <v>15</v>
+      </c>
+      <c r="G118" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>470</v>
+      </c>
+      <c r="C119" t="s">
+        <v>471</v>
+      </c>
+      <c r="D119" t="s">
+        <v>472</v>
+      </c>
+      <c r="E119" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119" t="s">
+        <v>11</v>
+      </c>
+      <c r="G119" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>474</v>
+      </c>
+      <c r="C120" t="s">
+        <v>475</v>
+      </c>
+      <c r="D120" t="s">
+        <v>476</v>
+      </c>
+      <c r="E120" t="s">
+        <v>10</v>
+      </c>
+      <c r="F120" t="s">
+        <v>11</v>
+      </c>
+      <c r="G120" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>478</v>
+      </c>
+      <c r="C121" t="s">
+        <v>479</v>
+      </c>
+      <c r="D121" t="s">
+        <v>480</v>
+      </c>
+      <c r="E121" t="s">
+        <v>481</v>
+      </c>
+      <c r="F121" t="s">
+        <v>482</v>
+      </c>
+      <c r="G121" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>484</v>
+      </c>
+      <c r="C122" t="s">
+        <v>485</v>
+      </c>
+      <c r="D122" t="s">
+        <v>486</v>
+      </c>
+      <c r="E122" t="s">
+        <v>467</v>
+      </c>
+      <c r="F122" t="s">
+        <v>468</v>
+      </c>
+      <c r="G122" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>488</v>
+      </c>
+      <c r="C123" t="s">
+        <v>485</v>
+      </c>
+      <c r="D123" t="s">
+        <v>486</v>
+      </c>
+      <c r="E123" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" t="s">
+        <v>15</v>
+      </c>
+      <c r="G123" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>490</v>
+      </c>
+      <c r="C124" t="s">
+        <v>491</v>
+      </c>
+      <c r="D124" t="s">
+        <v>492</v>
+      </c>
+      <c r="E124" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" t="s">
+        <v>11</v>
+      </c>
+      <c r="G124" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>494</v>
+      </c>
+      <c r="C125" t="s">
+        <v>495</v>
+      </c>
+      <c r="D125" t="s">
+        <v>496</v>
+      </c>
+      <c r="E125" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125" t="s">
+        <v>11</v>
+      </c>
+      <c r="G125" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>498</v>
+      </c>
+      <c r="C126" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" t="s">
+        <v>499</v>
+      </c>
+      <c r="F126" t="s">
+        <v>500</v>
+      </c>
+      <c r="G126" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>502</v>
+      </c>
+      <c r="C127" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" t="s">
+        <v>503</v>
+      </c>
+      <c r="F127" t="s">
+        <v>504</v>
+      </c>
+      <c r="G127" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>506</v>
+      </c>
+      <c r="C128" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128" t="s">
+        <v>15</v>
+      </c>
+      <c r="E128" t="s">
+        <v>507</v>
+      </c>
+      <c r="F128" t="s">
+        <v>508</v>
+      </c>
+      <c r="G128" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>510</v>
+      </c>
+      <c r="C129" t="s">
+        <v>511</v>
+      </c>
+      <c r="D129" t="s">
+        <v>512</v>
+      </c>
+      <c r="E129" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129" t="s">
+        <v>11</v>
+      </c>
+      <c r="G129" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>514</v>
+      </c>
+      <c r="C130" t="s">
+        <v>515</v>
+      </c>
+      <c r="D130" t="s">
+        <v>516</v>
+      </c>
+      <c r="E130" t="s">
+        <v>10</v>
+      </c>
+      <c r="F130" t="s">
+        <v>11</v>
+      </c>
+      <c r="G130" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>518</v>
+      </c>
+      <c r="C131" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131" t="s">
+        <v>349</v>
+      </c>
+      <c r="F131" t="s">
+        <v>519</v>
+      </c>
+      <c r="G131" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>521</v>
+      </c>
+      <c r="C132" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" t="s">
+        <v>349</v>
+      </c>
+      <c r="F132" t="s">
+        <v>522</v>
+      </c>
+      <c r="G132" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>524</v>
+      </c>
+      <c r="C133" t="s">
+        <v>349</v>
+      </c>
+      <c r="D133" t="s">
+        <v>525</v>
+      </c>
+      <c r="E133" t="s">
+        <v>10</v>
+      </c>
+      <c r="F133" t="s">
+        <v>11</v>
+      </c>
+      <c r="G133" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>527</v>
+      </c>
+      <c r="C134" t="s">
+        <v>349</v>
+      </c>
+      <c r="D134" t="s">
+        <v>528</v>
+      </c>
+      <c r="E134" t="s">
+        <v>10</v>
+      </c>
+      <c r="F134" t="s">
+        <v>11</v>
+      </c>
+      <c r="G134" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>530</v>
+      </c>
+      <c r="C135" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135" t="s">
+        <v>349</v>
+      </c>
+      <c r="F135" t="s">
+        <v>531</v>
+      </c>
+      <c r="G135" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>533</v>
+      </c>
+      <c r="C136" t="s">
+        <v>534</v>
+      </c>
+      <c r="D136" t="s">
+        <v>535</v>
+      </c>
+      <c r="E136" t="s">
+        <v>10</v>
+      </c>
+      <c r="F136" t="s">
+        <v>11</v>
+      </c>
+      <c r="G136" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>537</v>
+      </c>
+      <c r="C137" t="s">
+        <v>538</v>
+      </c>
+      <c r="D137" t="s">
+        <v>539</v>
+      </c>
+      <c r="E137" t="s">
+        <v>10</v>
+      </c>
+      <c r="F137" t="s">
+        <v>11</v>
+      </c>
+      <c r="G137" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>541</v>
+      </c>
+      <c r="C138" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" t="s">
+        <v>542</v>
+      </c>
+      <c r="F138" t="s">
+        <v>543</v>
+      </c>
+      <c r="G138" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>545</v>
+      </c>
+      <c r="C139" t="s">
+        <v>546</v>
+      </c>
+      <c r="D139" t="s">
+        <v>547</v>
+      </c>
+      <c r="E139" t="s">
+        <v>10</v>
+      </c>
+      <c r="F139" t="s">
+        <v>11</v>
+      </c>
+      <c r="G139" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>549</v>
+      </c>
+      <c r="C140" t="s">
+        <v>550</v>
+      </c>
+      <c r="D140" t="s">
+        <v>551</v>
+      </c>
+      <c r="E140" t="s">
+        <v>10</v>
+      </c>
+      <c r="F140" t="s">
+        <v>11</v>
+      </c>
+      <c r="G140" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>553</v>
+      </c>
+      <c r="C141" t="s">
+        <v>349</v>
+      </c>
+      <c r="D141" t="s">
+        <v>554</v>
+      </c>
+      <c r="E141" t="s">
+        <v>10</v>
+      </c>
+      <c r="F141" t="s">
+        <v>11</v>
+      </c>
+      <c r="G141" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>556</v>
+      </c>
+      <c r="C142" t="s">
+        <v>557</v>
+      </c>
+      <c r="D142" t="s">
+        <v>558</v>
+      </c>
+      <c r="E142" t="s">
+        <v>10</v>
+      </c>
+      <c r="F142" t="s">
+        <v>11</v>
+      </c>
+      <c r="G142" t="s">
+        <v>559</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
